--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Pspn-Ret.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Pspn-Ret.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.7284796666666667</v>
+        <v>0.535365</v>
       </c>
       <c r="H2">
-        <v>2.185439</v>
+        <v>1.606095</v>
       </c>
       <c r="I2">
-        <v>0.2080449530531628</v>
+        <v>0.1618182173563651</v>
       </c>
       <c r="J2">
-        <v>0.2080449530531627</v>
+        <v>0.1618182173563651</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8229576666666668</v>
+        <v>1.028010333333333</v>
       </c>
       <c r="N2">
-        <v>2.468873</v>
+        <v>3.084031</v>
       </c>
       <c r="O2">
-        <v>0.03362764644735265</v>
+        <v>0.04165745457248912</v>
       </c>
       <c r="P2">
-        <v>0.03362764644735265</v>
+        <v>0.04165745457248914</v>
       </c>
       <c r="Q2">
-        <v>0.5995079266941112</v>
+        <v>0.5503607521049999</v>
       </c>
       <c r="R2">
-        <v>5.395571340247001</v>
+        <v>4.953246768945</v>
       </c>
       <c r="S2">
-        <v>0.006996062126427838</v>
+        <v>0.00674093503852395</v>
       </c>
       <c r="T2">
-        <v>0.006996062126427837</v>
+        <v>0.006740935038523951</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.7284796666666667</v>
+        <v>0.535365</v>
       </c>
       <c r="H3">
-        <v>2.185439</v>
+        <v>1.606095</v>
       </c>
       <c r="I3">
-        <v>0.2080449530531628</v>
+        <v>0.1618182173563651</v>
       </c>
       <c r="J3">
-        <v>0.2080449530531627</v>
+        <v>0.1618182173563651</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>69.305324</v>
       </c>
       <c r="O3">
-        <v>0.9439833204831614</v>
+        <v>0.9361395479363341</v>
       </c>
       <c r="P3">
-        <v>0.9439833204831615</v>
+        <v>0.9361395479363344</v>
       </c>
       <c r="Q3">
-        <v>16.82917310858178</v>
+        <v>12.36788159442</v>
       </c>
       <c r="R3">
-        <v>151.462557977236</v>
+        <v>111.31093434978</v>
       </c>
       <c r="S3">
-        <v>0.196390965592888</v>
+        <v>0.1514844328438511</v>
       </c>
       <c r="T3">
-        <v>0.196390965592888</v>
+        <v>0.1514844328438511</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.7284796666666667</v>
+        <v>0.535365</v>
       </c>
       <c r="H4">
-        <v>2.185439</v>
+        <v>1.606095</v>
       </c>
       <c r="I4">
-        <v>0.2080449530531628</v>
+        <v>0.1618182173563651</v>
       </c>
       <c r="J4">
-        <v>0.2080449530531627</v>
+        <v>0.1618182173563651</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>1.643757</v>
       </c>
       <c r="O4">
-        <v>0.02238903306948598</v>
+        <v>0.02220299749117665</v>
       </c>
       <c r="P4">
-        <v>0.02238903306948598</v>
+        <v>0.02220299749117666</v>
       </c>
       <c r="Q4">
-        <v>0.3991478504803334</v>
+        <v>0.293336655435</v>
       </c>
       <c r="R4">
-        <v>3.592330654323001</v>
+        <v>2.640029898915</v>
       </c>
       <c r="S4">
-        <v>0.004657925333846918</v>
+        <v>0.003592849473990052</v>
       </c>
       <c r="T4">
-        <v>0.004657925333846918</v>
+        <v>0.003592849473990053</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>6.177813</v>
       </c>
       <c r="I5">
-        <v>0.588102809346872</v>
+        <v>0.6224306076670297</v>
       </c>
       <c r="J5">
-        <v>0.588102809346872</v>
+        <v>0.6224306076670296</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.8229576666666668</v>
+        <v>1.028010333333333</v>
       </c>
       <c r="N5">
-        <v>2.468873</v>
+        <v>3.084031</v>
       </c>
       <c r="O5">
-        <v>0.03362764644735265</v>
+        <v>0.04165745457248912</v>
       </c>
       <c r="P5">
-        <v>0.03362764644735265</v>
+        <v>0.04165745457248914</v>
       </c>
       <c r="Q5">
-        <v>1.694692857194334</v>
+        <v>2.116951867133667</v>
       </c>
       <c r="R5">
-        <v>15.252235714749</v>
+        <v>19.052566804203</v>
       </c>
       <c r="S5">
-        <v>0.01977651334741145</v>
+        <v>0.02592887476341609</v>
       </c>
       <c r="T5">
-        <v>0.01977651334741145</v>
+        <v>0.0259288747634161</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>6.177813</v>
       </c>
       <c r="I6">
-        <v>0.588102809346872</v>
+        <v>0.6224306076670297</v>
       </c>
       <c r="J6">
-        <v>0.588102809346872</v>
+        <v>0.6224306076670296</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>69.305324</v>
       </c>
       <c r="O6">
-        <v>0.9439833204831614</v>
+        <v>0.9361395479363341</v>
       </c>
       <c r="P6">
-        <v>0.9439833204831615</v>
+        <v>0.9361395479363344</v>
       </c>
       <c r="Q6">
         <v>47.57281461960134</v>
@@ -818,10 +818,10 @@
         <v>428.155331576412</v>
       </c>
       <c r="S6">
-        <v>0.5551592427527358</v>
+        <v>0.582681907683151</v>
       </c>
       <c r="T6">
-        <v>0.5551592427527359</v>
+        <v>0.582681907683151</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>6.177813</v>
       </c>
       <c r="I7">
-        <v>0.588102809346872</v>
+        <v>0.6224306076670297</v>
       </c>
       <c r="J7">
-        <v>0.588102809346872</v>
+        <v>0.6224306076670296</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>1.643757</v>
       </c>
       <c r="O7">
-        <v>0.02238903306948598</v>
+        <v>0.02220299749117665</v>
       </c>
       <c r="P7">
-        <v>0.02238903306948598</v>
+        <v>0.02220299749117666</v>
       </c>
       <c r="Q7">
         <v>1.128313707049</v>
@@ -880,10 +880,10 @@
         <v>10.154823363441</v>
       </c>
       <c r="S7">
-        <v>0.01316705324672472</v>
+        <v>0.01381982522046262</v>
       </c>
       <c r="T7">
-        <v>0.01316705324672472</v>
+        <v>0.01381982522046262</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>2.141396</v>
       </c>
       <c r="I8">
-        <v>0.2038522375999652</v>
+        <v>0.2157511749766052</v>
       </c>
       <c r="J8">
-        <v>0.2038522375999652</v>
+        <v>0.2157511749766052</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.8229576666666668</v>
+        <v>1.028010333333333</v>
       </c>
       <c r="N8">
-        <v>2.468873</v>
+        <v>3.084031</v>
       </c>
       <c r="O8">
-        <v>0.03362764644735265</v>
+        <v>0.04165745457248912</v>
       </c>
       <c r="P8">
-        <v>0.03362764644735265</v>
+        <v>0.04165745457248914</v>
       </c>
       <c r="Q8">
-        <v>0.5874260851897778</v>
+        <v>0.7337924052528887</v>
       </c>
       <c r="R8">
-        <v>5.286834766708</v>
+        <v>6.604131647276</v>
       </c>
       <c r="S8">
-        <v>0.00685507097351336</v>
+        <v>0.008987644770549082</v>
       </c>
       <c r="T8">
-        <v>0.00685507097351336</v>
+        <v>0.008987644770549088</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>2.141396</v>
       </c>
       <c r="I9">
-        <v>0.2038522375999652</v>
+        <v>0.2157511749766052</v>
       </c>
       <c r="J9">
-        <v>0.2038522375999652</v>
+        <v>0.2157511749766052</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>69.305324</v>
       </c>
       <c r="O9">
-        <v>0.9439833204831614</v>
+        <v>0.9361395479363341</v>
       </c>
       <c r="P9">
-        <v>0.9439833204831615</v>
+        <v>0.9361395479363344</v>
       </c>
       <c r="Q9">
         <v>16.49001595470044</v>
@@ -1004,10 +1004,10 @@
         <v>148.410143592304</v>
       </c>
       <c r="S9">
-        <v>0.1924331121375375</v>
+        <v>0.2019732074093321</v>
       </c>
       <c r="T9">
-        <v>0.1924331121375376</v>
+        <v>0.2019732074093322</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>2.141396</v>
       </c>
       <c r="I10">
-        <v>0.2038522375999652</v>
+        <v>0.2157511749766052</v>
       </c>
       <c r="J10">
-        <v>0.2038522375999652</v>
+        <v>0.2157511749766052</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>1.643757</v>
       </c>
       <c r="O10">
-        <v>0.02238903306948598</v>
+        <v>0.02220299749117665</v>
       </c>
       <c r="P10">
-        <v>0.02238903306948598</v>
+        <v>0.02220299749117666</v>
       </c>
       <c r="Q10">
         <v>0.3911038516413333</v>
@@ -1066,10 +1066,10 @@
         <v>3.519934664772</v>
       </c>
       <c r="S10">
-        <v>0.004564054488914334</v>
+        <v>0.00479032279672398</v>
       </c>
       <c r="T10">
-        <v>0.004564054488914335</v>
+        <v>0.004790322796723982</v>
       </c>
     </row>
   </sheetData>
